--- a/biology/Zoologie/Gueule_d'or/Gueule_d'or.xlsx
+++ b/biology/Zoologie/Gueule_d'or/Gueule_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gueule_d%27or</t>
+          <t>Gueule_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gueule d'or (« Lockjaw » en version originale) est un animal de fiction évoluant dans l'univers Marvel de la maison d'édition Marvel Comics. Créé par le scénariste Stan Lee et le dessinateur Jack Kirby, le personnage apparaît pour la première fois dans le comic book Fantastic Four #45 en décembre 1965.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gueule_d%27or</t>
+          <t>Gueule_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Biographie du personnage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gueule d'or est plus qu'un animal de compagnie. Il sert fidèlement la famille royale d'Attilan, en particulier sa maîtresse Crystal sur qui il veille depuis son enfance.
 Grâce à ses pouvoirs de téléportation, il sera le seul à pouvoir franchir la barrière énergétique qui entourera pendant un temps la cité d'Attilan.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gueule_d%27or</t>
+          <t>Gueule_d'or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Pouvoirs et capacités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Énorme bouledogue mesurant 2 mètres de long pour un poids de plus d'une demi-tonne, Gueule d'or possède une sorte de petite antenne sur front. Il est capable de se téléporter, lui et d'autres créatures vivantes proches de lui, à proximité de la Terre ou de la Lune. Il peut également ouvrir des passages entre les dimensions.
 Gueule d'or est apparemment doté une force « super-canine » à la mâchoire. Une fois, il s’attacha avec sa mâchoire au bras de la Chose avec une telle force que celui-ci fut incapable de lui faire lâcher prise.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gueule_d%27or</t>
+          <t>Gueule_d'or</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,17 +597,88 @@
           <t>Apparitions dans d'autres médias</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Télévision
-2013 : Hulk et les Agents du S.M.A.S.H. (série d'animation)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gueule_d'or</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gueule_d%27or</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Apparitions dans d'autres médias</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2013 : Hulk et les Agents du S.M.A.S.H. (série d'animation)
 2014 : Ultimate Spider-Man (série d'animation)
 depuis 2016 : Avengers : Ultron Revolution (série d'animation)
 Dans l'univers cinématographique Marvel
-2017 : The Inhumans (série télévisée)[1].
-Jeu vidéo
-Lego Marvel Super Heroes 2</t>
+2017 : The Inhumans (série télévisée).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gueule_d'or</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gueule_d%27or</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Apparitions dans d'autres médias</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jeu vidéo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lego Marvel Super Heroes 2</t>
         </is>
       </c>
     </row>
